--- a/pc/public/excel_template/esw/wxapp_config.xlsx
+++ b/pc/public/excel_template/esw/wxapp_config.xlsx
@@ -33,6 +33,9 @@
     <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsWxappConfig;%&gt;&lt;%=comment.lbl%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;%=comment.val%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%=comment.is_locked_lbl%&gt;&lt;%selectList.is_locked = data.getDict.find((item) =&gt; item[0]?.code === "is_locked")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_locked &amp;&amp; selectList.is_locked.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_locked.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%forRow model in data.findAllWxappConfig%&gt;&lt;%=model.lbl%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model.val%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.is_locked_lbl%&gt;</t>
@@ -431,31 +437,37 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
